--- a/biology/Médecine/Charaka/Charaka.xlsx
+++ b/biology/Médecine/Charaka/Charaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plus d'informations sur le livre Charaka Samhita, voir Charaka Samhita .
-Un Charaka, (IAST:  Caraka, devanāgarī : चरक)[1] était un médecin itinérant[2]. Un Charaka a vraisemblablement été médecin de l'empereur Kanishka[3] et aurait donc vécu au Ier siècle[4]. La tradition indienne le situe à une période beaucoup plus ancienne. Issu d'une famille brahmane, il est considéré comme un des principaux fondateurs de l’antique science ayurvédique, un système de médecine et de mode de vie.
+Un Charaka, (IAST:  Caraka, devanāgarī : चरक) était un médecin itinérant. Un Charaka a vraisemblablement été médecin de l'empereur Kanishka et aurait donc vécu au Ier siècle. La tradition indienne le situe à une période beaucoup plus ancienne. Issu d'une famille brahmane, il est considéré comme un des principaux fondateurs de l’antique science ayurvédique, un système de médecine et de mode de vie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Charaka &amp; Ayurveda</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les traductions de Charaka, la santé et la maladie ne sont pas déterminées à l'avance et la vie peut être prolongée par l'effort humain et l'attention portée au mode de vie.
 Les énoncés suivants sont attribués à Charaka :
@@ -551,7 +565,9 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon la tradition transmise par Charaka, il existe six écoles de médecine, fondée par les disciples du sage Punarvasu Ātreya. Chacun de ses disciples, Agnivesha, Bhela, Jatūkarna, Parāshara, Hārīta, et Kshārapāni, un composèrent un Samhitā. Parmi ceux-ci, celui qui avait été écrit par Agnivesha était considéré comme le meilleur. La Samhitā d’Agnivesha a ensuite été réécrite par Charaka et devint connue sous le nom de Charaka Samhitā. La Charaka Samhitā a ensuite été révisée par Dridhbala.
 La médecine Āyurvédique est traditionnellement divisée en huit branches qui, dans le schéma de Charaka, sont les suivantes :
@@ -590,7 +606,9 @@
           <t>Charaka Samhita</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Charaka Samhita contient 120 adhyayas (chapitres), divisé en 8 parties.
 Sutra Sthana
